--- a/scripts/eval/model_comparison_metrics.xlsx
+++ b/scripts/eval/model_comparison_metrics.xlsx
@@ -517,7 +517,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Model Prep Time (s)</t>
+          <t>Prep Time (s)</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -549,7 +549,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Samples/second</t>
+          <t>Samples/sec</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -565,7 +565,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Steps/second</t>
+          <t>Steps/sec</t>
         </is>
       </c>
       <c r="B9" t="n">
